--- a/biology/Médecine/Pseudo-pelade_de_Brocq/Pseudo-pelade_de_Brocq.xlsx
+++ b/biology/Médecine/Pseudo-pelade_de_Brocq/Pseudo-pelade_de_Brocq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pseudo-pelade de Brocq est une forme cicatricielle non spécifique d'alopécie du cuir chevelu que l'on retrouve généralement chez l'adulte, décrite et étudiée par le dermatologue français Louis-Anne-Jean Brocq[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pseudo-pelade de Brocq est une forme cicatricielle non spécifique d'alopécie du cuir chevelu que l'on retrouve généralement chez l'adulte, décrite et étudiée par le dermatologue français Louis-Anne-Jean Brocq,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se caractérise par des plaques multiples, asymptomatiques, petites, rondes, ovales ou de forme irrégulière et glabres.
 Les zones touchées sont de couleur blanc ivoire ou légèrement roses et atrophiées.
@@ -543,7 +557,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette alopécie est généralement considérée comme un syndrome clinique qui peut être l'aboutissement d'un ou plusieurs processus pathologiques.
 Elle peut dans de nombreux cas être associée à un lichen planopilaris, un lupus érythémateux, une morphée et une folliculitis decalvans.
